--- a/kindle/category_list/countries.xlsx
+++ b/kindle/category_list/countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>countries</t>
   </si>
@@ -25,18 +25,18 @@
     <t>Australia</t>
   </si>
   <si>
+    <t>Canada</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>United States</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Francce</t>
   </si>
   <si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>United Kingdom</t>
@@ -91,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -120,39 +117,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,45 +224,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +270,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,13 +288,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,157 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,15 +467,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -486,16 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +527,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -549,25 +561,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,130 +582,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,184 +1032,134 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.5333333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.9809523809524" customWidth="1"/>
+    <col min="2" max="2" width="18.0380952380952" customWidth="1"/>
+    <col min="3" max="3" width="22.9809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/kindle/category_list/countries.xlsx
+++ b/kindle/category_list/countries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>countries</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Complete List</t>
   </si>
   <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
   </si>
   <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>China</t>
@@ -88,9 +88,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,8 +117,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -126,29 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,30 +179,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +200,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -224,15 +239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -240,22 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +270,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,163 +372,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,30 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,6 +475,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,25 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +543,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,127 +585,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1058,23 +1058,20 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -1154,7 +1151,7 @@
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:3">

--- a/kindle/category_list/countries.xlsx
+++ b/kindle/category_list/countries.xlsx
@@ -88,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -117,6 +117,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,62 +155,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,21 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -241,6 +233,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,14 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,21 +505,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,32 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -561,10 +550,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,130 +582,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1043,6 +1043,7 @@
     <col min="1" max="1" width="21.5333333333333" customWidth="1"/>
     <col min="2" max="2" width="18.0380952380952" customWidth="1"/>
     <col min="3" max="3" width="22.9809523809524" customWidth="1"/>
+    <col min="4" max="4" width="9.34285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
